--- a/biology/Botanique/Clinopodium_menthifolium/Clinopodium_menthifolium.xlsx
+++ b/biology/Botanique/Clinopodium_menthifolium/Clinopodium_menthifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clinopodium menthifolium est une espèce de plantes de la famille des Lamiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante velue à odeur de menthe. Souche stolonifère, tige carrée. Feuilles opposées, dentées et pétiolées. Fleurs roses en glomérules peu denses.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison de juin à septembre. Vivace: géophyte à rhizome. Pollinisation par les insectes.
 </t>
@@ -573,7 +589,9 @@
           <t>Chorologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Subméditerranéenne. Etages collinéen à montagnard. Jusqu'à 1700 m.
 </t>
@@ -604,7 +622,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bords de chemins forestiers, lisières, vieux murs. Sols secs, calcaires ombragés.
 </t>
@@ -635,9 +655,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 août 2019)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (19 août 2019) :
 Clinopodium menthifolium subsp. ascendens (Jord.) Govaerts (1999)
 Clinopodium menthifolium subsp. hirtum (Briq.) Govaerts (1999)
 Clinopodium menthifolium subsp. menthifolium</t>
